--- a/data/wjj/pj1/A/A_1.xlsx
+++ b/data/wjj/pj1/A/A_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\data\wwe\wjj\pj1\A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wwe\work\py\DataAnalysis\data\wjj\pj1\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C958DD9-0557-4988-92EF-DF4FACEBA524}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C245A97-2234-4092-97F6-FF427B518B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22370" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>借款期限</t>
   </si>
   <si>
-    <t>转入时间</t>
-  </si>
-  <si>
     <t>收到账号</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>宠物医疗用品</t>
+  </si>
+  <si>
+    <t>转入日期</t>
   </si>
 </sst>
 </file>
@@ -105,9 +105,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="170" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -229,28 +229,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -259,16 +259,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -277,26 +277,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,20 +305,20 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,14 +327,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +668,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -732,31 +732,31 @@
         <v>7</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="P2" s="14" t="s">
         <v>14</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="20.149999999999999" customHeight="1">
@@ -767,10 +767,10 @@
         <v>0.78364583333333304</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="22">
         <v>6600</v>
@@ -786,7 +786,7 @@
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -798,10 +798,10 @@
         <v>0.43909722222222197</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="22">
         <v>4500</v>
@@ -834,7 +834,7 @@
         <v>0.64565972222222201</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="22">
         <v>8700</v>
@@ -854,10 +854,10 @@
         <v>0.52478009259259295</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="22">
         <v>5500</v>
@@ -883,10 +883,10 @@
         <v>0.52576388888888903</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="22">
         <v>6500</v>
@@ -919,7 +919,7 @@
         <v>0.777708333333333</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="22">
         <v>7200</v>
@@ -937,10 +937,10 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="22">
         <v>3000</v>
@@ -966,10 +966,10 @@
         <v>0.78087962962962998</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="22">
         <v>4500</v>
@@ -995,10 +995,10 @@
         <v>0.621423611111111</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="22">
         <v>4500</v>
@@ -1014,7 +1014,7 @@
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
       <c r="P11" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="1"/>
     </row>
@@ -1026,10 +1026,10 @@
         <v>0.39144675925925898</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="22">
         <v>15000</v>
@@ -1055,10 +1055,10 @@
         <v>0.40192129629629603</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="22">
         <v>5000</v>
@@ -1084,10 +1084,10 @@
         <v>0.428611111111111</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="22">
         <v>2800</v>
@@ -1113,10 +1113,10 @@
         <v>0.429224537037037</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="22">
         <v>2280</v>
@@ -1142,10 +1142,10 @@
         <v>0.491689814814815</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="22">
         <v>15000</v>
@@ -1171,10 +1171,10 @@
         <v>0.49206018518518502</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="22">
         <v>8000</v>
@@ -1207,7 +1207,7 @@
         <v>0.63887731481481502</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="22">
         <v>260</v>
@@ -1234,7 +1234,7 @@
         <v>0.619340277777778</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" s="22">
         <v>18700</v>
@@ -1261,7 +1261,7 @@
         <v>0.62164351851851896</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="22">
         <v>80</v>
@@ -1288,7 +1288,7 @@
         <v>0.74804398148148099</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="22">
         <v>3192</v>
@@ -1308,10 +1308,10 @@
         <v>0.34787037037037</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="22">
         <v>4500</v>
@@ -1337,10 +1337,10 @@
         <v>0.50182870370370403</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="22">
         <v>80</v>
@@ -1373,7 +1373,7 @@
         <v>0.72931712962963002</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" s="22">
         <v>9200</v>
@@ -1400,7 +1400,7 @@
         <v>0.794953703703704</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" s="22">
         <v>8000</v>
@@ -1420,10 +1420,10 @@
         <v>0.38837962962963002</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="22">
         <v>8500</v>
@@ -1449,10 +1449,10 @@
         <v>0.38883101851851898</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="22">
         <v>8500</v>
@@ -1478,10 +1478,10 @@
         <v>0.38957175925925902</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="22">
         <v>8000</v>
@@ -1507,10 +1507,10 @@
         <v>0.422222222222222</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="22">
         <v>4500</v>
@@ -1536,10 +1536,10 @@
         <v>0.41137731481481499</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="22">
         <v>5000</v>
@@ -1565,10 +1565,10 @@
         <v>0.41168981481481498</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="22">
         <v>6000</v>
@@ -1601,7 +1601,7 @@
         <v>0.77640046296296295</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="22">
         <v>23480</v>
@@ -1621,10 +1621,10 @@
         <v>0.59172453703703698</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="22">
         <v>12000</v>
@@ -1650,10 +1650,10 @@
         <v>0.71271990740740698</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E34" s="22">
         <v>2500</v>
@@ -1679,10 +1679,10 @@
         <v>0.65743055555555596</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E35" s="22">
         <v>10000</v>
@@ -1708,10 +1708,10 @@
         <v>0.74285879629629603</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="22">
         <v>28</v>
@@ -1737,10 +1737,10 @@
         <v>0.39291666666666702</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="22">
         <v>8000</v>
@@ -1773,7 +1773,7 @@
         <v>0.60372685185185204</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K38" s="22">
         <v>30000</v>
@@ -1800,7 +1800,7 @@
         <v>0.60495370370370405</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" s="22">
         <v>10000</v>
@@ -1827,7 +1827,7 @@
         <v>0.63662037037037</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K40" s="22">
         <v>2600</v>
@@ -1854,7 +1854,7 @@
         <v>6.875E-3</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" s="22">
         <v>20000</v>
@@ -1874,10 +1874,10 @@
         <v>0.67273148148148099</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E42" s="22">
         <v>16000</v>
@@ -1903,10 +1903,10 @@
         <v>0.37858796296296299</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E43" s="22">
         <v>9500</v>
@@ -1939,7 +1939,7 @@
         <v>0.56831018518518495</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K44" s="22">
         <v>4300</v>
@@ -1959,10 +1959,10 @@
         <v>0.59243055555555602</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="22">
         <v>20000</v>
@@ -1988,10 +1988,10 @@
         <v>0.43880787037037</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" s="22">
         <v>1888</v>
@@ -2017,10 +2017,10 @@
         <v>0.58927083333333297</v>
       </c>
       <c r="C47" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="E47" s="32">
         <v>100000</v>
@@ -2046,10 +2046,10 @@
         <v>0.62158564814814798</v>
       </c>
       <c r="C48" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="31" t="s">
         <v>23</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>24</v>
       </c>
       <c r="E48" s="32">
         <v>50000</v>
@@ -2075,10 +2075,10 @@
         <v>0.62908564814814805</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" s="22">
         <v>1500</v>
@@ -2104,10 +2104,10 @@
         <v>0.45377314814814801</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="22">
         <v>1200</v>
@@ -2133,10 +2133,10 @@
         <v>0.38778935185185198</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E51" s="22">
         <v>3000</v>
@@ -2162,10 +2162,10 @@
         <v>0.52565972222222201</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="22">
         <v>2666</v>
@@ -2191,10 +2191,10 @@
         <v>0.43094907407407401</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E53" s="22">
         <v>5000</v>
@@ -2220,10 +2220,10 @@
         <v>0.39927083333333302</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" s="22">
         <v>6000</v>
@@ -2249,10 +2249,10 @@
         <v>0.57886574074074104</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" s="22">
         <v>13000</v>
@@ -2278,10 +2278,10 @@
         <v>0.59332175925925901</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56" s="22">
         <v>12000</v>
@@ -2307,10 +2307,10 @@
         <v>0.49567129629629603</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="22">
         <v>25000</v>
@@ -2336,10 +2336,10 @@
         <v>0.49638888888888899</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" s="22">
         <v>25000</v>
@@ -2365,10 +2365,10 @@
         <v>0.38876157407407402</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" s="22">
         <v>6000</v>
@@ -2394,10 +2394,10 @@
         <v>0.56166666666666698</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" s="22">
         <v>3000</v>
@@ -2423,10 +2423,10 @@
         <v>0.63967592592592604</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" s="22">
         <v>28000</v>
@@ -2452,10 +2452,10 @@
         <v>0.67734953703703704</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" s="22">
         <v>6000</v>
